--- a/loaded_influencer_data/amayacrichton/amayacrichton.xlsx
+++ b/loaded_influencer_data/amayacrichton/amayacrichton.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>616800</v>
       </c>
       <c r="D2" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,21 @@
         <v>616800</v>
       </c>
       <c r="D3" t="n">
-        <v>552</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37800000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>624500</v>
+      </c>
+      <c r="D4" t="n">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
